--- a/report_ca_nhan/NV-36 Đặng Ngọc Mai 6-2024.xlsx
+++ b/report_ca_nhan/NV-36 Đặng Ngọc Mai 6-2024.xlsx
@@ -10,10 +10,6 @@
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +524,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -605,6 +611,60 @@
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +787,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -808,6 +878,60 @@
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +1054,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -938,11 +1072,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-16-2024</t>
+          <t>06-01-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -952,17 +1086,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -971,7 +1105,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3500000</v>
+        <v>2300000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -980,19 +1114,19 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>3500000</v>
+        <v>2300000</v>
       </c>
       <c r="M2" t="n">
-        <v>3500000</v>
+        <v>1000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O2" t="n">
-        <v>3500000</v>
+        <v>1800000</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1002,13 +1136,17 @@
       <c r="R2" t="n">
         <v/>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S2" t="n">
+        <v/>
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1018,7 +1156,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1032,17 +1170,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1051,7 +1189,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>900000</v>
+        <v>3500000</v>
       </c>
       <c r="J3" t="n">
         <v/>
@@ -1060,16 +1198,16 @@
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>900000</v>
+        <v>3500000</v>
       </c>
       <c r="M3" t="n">
-        <v>900000</v>
+        <v>3500000</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>900000</v>
+        <v>3500000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1082,11 +1220,19 @@
       <c r="R3" t="n">
         <v/>
       </c>
-      <c r="S3" t="n">
-        <v/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T3" t="n">
         <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1096,11 +1242,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06-17-2024</t>
+          <t>06-16-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1110,17 +1256,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1129,7 +1275,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="J4" t="n">
         <v/>
@@ -1138,16 +1284,16 @@
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1160,13 +1306,17 @@
       <c r="R4" t="n">
         <v/>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S4" t="n">
+        <v/>
       </c>
       <c r="T4" t="n">
         <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1176,11 +1326,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06-18-2024</t>
+          <t>06-17-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1190,17 +1340,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1209,7 +1359,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="J5" t="n">
         <v/>
@@ -1218,16 +1368,16 @@
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="M5" t="n">
-        <v>2800000</v>
+        <v>4500000</v>
       </c>
       <c r="N5" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1240,11 +1390,19 @@
       <c r="R5" t="n">
         <v/>
       </c>
-      <c r="S5" t="n">
-        <v/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T5" t="n">
         <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1254,11 +1412,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06-20-2024</t>
+          <t>06-18-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1268,17 +1426,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1287,7 +1445,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -1296,16 +1454,16 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="M6" t="n">
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1318,13 +1476,17 @@
       <c r="R6" t="n">
         <v/>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S6" t="n">
+        <v/>
       </c>
       <c r="T6" t="n">
         <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1334,11 +1496,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06-22-2024</t>
+          <t>06-20-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1346,17 +1508,19 @@
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phan thuỳ vân</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1365,7 +1529,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="J7" t="n">
         <v/>
@@ -1374,16 +1538,16 @@
         <v/>
       </c>
       <c r="L7" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1396,11 +1560,19 @@
       <c r="R7" t="n">
         <v/>
       </c>
-      <c r="S7" t="n">
-        <v/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T7" t="n">
         <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1410,7 +1582,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,55 +1594,53 @@
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bùi thuý hằng</t>
-        </is>
+      <c r="E8" t="n">
+        <v/>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phun môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>Đặng Ngọc Mai</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
       <c r="R8" t="n">
         <v/>
       </c>
@@ -1479,6 +1649,12 @@
       </c>
       <c r="T8" t="n">
         <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1488,11 +1664,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06-27-2024</t>
+          <t>06-22-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1502,65 +1678,67 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Phun môi</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J9" t="inlineStr">
+        <v>2000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Đặng Ngọc Mai</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
       <c r="R9" t="n">
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
       </c>
       <c r="T9" t="n">
         <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1570,7 +1748,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1584,17 +1762,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KC GT</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1603,25 +1781,27 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8100000</v>
-      </c>
-      <c r="J10" t="n">
-        <v/>
+        <v>3000000</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v/>
       </c>
       <c r="L10" t="n">
-        <v>8100000</v>
+        <v>3000000</v>
       </c>
       <c r="M10" t="n">
-        <v>8100000</v>
+        <v>3000000</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8100000</v>
+        <v>3000000</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1641,6 +1821,12 @@
       </c>
       <c r="T10" t="n">
         <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1650,494 +1836,215 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>477</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06-27-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lê thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>KC GT</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>496</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>06-30-2024</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Đặng thị hồng đào</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3500000</v>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
         <v>3500000</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>3500000</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3500000</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Đặng Ngọc Mai</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>36100000</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>36100000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>34100000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>35600000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
